--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,60 +46,63 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>ok</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -109,15 +112,15 @@
     <t>piece</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -133,10 +136,10 @@
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>negative</t>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>0.6461538461538462</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,16 +673,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.4545454545454545</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9428571428571428</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.4086021505376344</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9174757281553398</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.2946058091286307</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L6">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M6">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9032258064516129</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="C7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.2453371592539455</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.2110091743119266</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8873239436619719</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,31 +920,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.1493027071369975</v>
+        <v>0.1565573770491803</v>
       </c>
       <c r="L9">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M9">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8548387096774194</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.08635097493036212</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.07722258273848151</v>
+        <v>0.07592472420506165</v>
       </c>
       <c r="L11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8409090909090909</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1067,31 +1070,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.05346187554776512</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.765625</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7578125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1151,13 +1154,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1177,13 +1180,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6984126984126984</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1203,13 +1206,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6851851851851852</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1232,10 +1235,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1255,13 +1258,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6557377049180327</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1281,13 +1284,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1310,10 +1313,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1333,13 +1336,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1359,13 +1362,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5023696682464455</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C23">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1385,13 +1388,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4202898550724637</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1411,13 +1414,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3902439024390244</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1437,13 +1440,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3681159420289855</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>218</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1463,13 +1466,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3608247422680412</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1489,13 +1492,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3425925925925926</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1515,13 +1518,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3118811881188119</v>
+        <v>0.3420289855072464</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="D29">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1541,13 +1544,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2721518987341772</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1567,13 +1570,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.23</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>154</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1593,13 +1596,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.177536231884058</v>
+        <v>0.19</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>227</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1619,13 +1622,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1234177215189873</v>
+        <v>0.1557971014492754</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1645,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1013215859030837</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>408</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1671,25 +1674,51 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09361069836552749</v>
+        <v>0.09940652818991098</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>610</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.08590308370044053</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
